--- a/my-app/static/downloads-excel/Reportes_DGSP_2024_09_23.xlsx
+++ b/my-app/static/downloads-excel/Reportes_DGSP_2024_09_23.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Apellido</t>
+          <t>TipoProyecto</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -466,72 +466,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVIER ALEXIS </t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JAIME GARCIA</t>
+          <t>CCTV</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Valle1</t>
+          <t>Acambaro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FACTOR3</t>
+          <t>SERXMEX</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>jjaime@guanajuato.gob.mx</t>
+          <t>kksksksks@niet.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CODIGO NEGRO: UPS DE MONITORES FALLA A CAUSA DE CORTE DE LUZ Y YA NO SIRVIO, EL CAMBIO DE PILAS FUER APROXIMADAMENTE HACE 3 MESES, FECHA EXACTA 6 DE AGOSTO DEL 2024, ESTE SIGUE EN FALLA</t>
+          <t>LOREM</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>23 de Sep 2024 12:29 PM</t>
+          <t>23 de Sep 2024 05:05 PM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JOEL</t>
+          <t>RICARDO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MOSQUEDA PUENTES</t>
+          <t>HERNANDEZ GONZALEZ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Acambaro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ONER, BOBIC</t>
+          <t>BOBIC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>jmosquedap@guanajuato.gob.mx</t>
+          <t>r.hernandezg@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MONITORES: NO SIRVEN YA QUE EL RESULTADO SALE EN 0, LA ULTIMA VISITA DEL PROVEEDOR FUE EL 23 DE MAYO DEL 2024</t>
+          <t>CCTV: NO SE VEN PTZ Y OTRAS 3 TIENEN PROBLEMAS DE VOLTAJE, CUANDO SE PRENDEN LAS LUCES DE LAS TORRES SE PAGAN LAS CAMARAS,      ese mensaje en amarillo, me sale cuando las ptz se mueven o se les realiza un zoom y de rato regresan pero es falla de voltaje y la que tengo completamente perdida, es la 10.16.10.95 ptz de torre de telecomunicaciones</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -539,34 +539,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>23 de Sep 2024 12:26 PM</t>
+          <t>23 de Sep 2024 01:36 PM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LUIS ANGEL</t>
+          <t xml:space="preserve">JAVIER ALEXIS </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CAMPOS GRANADOS</t>
+          <t>JAIME GARCIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Guanajuato</t>
+          <t>Valle1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOBIC</t>
+          <t>FACTOR3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>lacampos@guanajuato.gob.mx</t>
+          <t>jjaime@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,83 +575,83 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23 de Sep 2024 12:22 PM</t>
+          <t>23 de Sep 2024 12:29 PM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">JOSE MIGUEL </t>
+          <t>JOEL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LONA HERNANDEZ</t>
+          <t>MOSQUEDA PUENTES</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BOBIC</t>
+          <t>ONER, BOBIC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>jlonah@guanajuato.gob.mx</t>
+          <t>jmosquedap@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TELEFONIA: 10 TECLADOS DE TELEFONO DE PPLS´S,MODELO RECIENTE LEVANTAMIENTO PARA REPARACION DE 10 CAMARAS Y RECABLEADO DE 15 CAMARAS, HACER VISITA DE PROVEEDOR. GRABACION DE VOZ: SE HAN ESTADO CARGANDO AL FTP</t>
+          <t>MONITORES: NO SIRVEN YA QUE EL RESULTADO SALE EN 0, LA ULTIMA VISITA DEL PROVEEDOR FUE EL 23 DE MAYO DEL 2024</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23 de Sep 2024 12:17 PM</t>
+          <t>23 de Sep 2024 12:26 PM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALEJANDRO ROSENDO</t>
+          <t>LUIS ANGEL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GONZALEZ VELAZQUEZ</t>
+          <t>CAMPOS GRANADOS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SECMAN</t>
+          <t>BOBIC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>agonzalezv@guanajuato.gob.mx</t>
+          <t>lacampos@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADUANA: TIENE UNA FALLA CON LA BANDA Y EL LECTOR, ARROJA UNA LEYENDA "SOLO DATOS DISPONIBLES" CAMARA CASETA PTZ: ESTA DESCONFIGURADA NO TIENE NADA DE VISION, ESTA ENCENDIDA PERO NO TIENE SEÑAL, TIENE DESDE QUE ENTREGARON EL PROYECTO QUE NO FUNCIONA. GRABACIONES DE VOZ: SE SUBIO UNA CANTIDAD, PERO SE ESTAN ACTUALIZANDO. RAYOS X: EL GENERADOR DE RAYOS X </t>
+          <t>CODIGO NEGRO: UPS DE MONITORES FALLA A CAUSA DE CORTE DE LUZ Y YA NO SIRVIO, EL CAMBIO DE PILAS FUER APROXIMADAMENTE HACE 3 MESES, FECHA EXACTA 6 DE AGOSTO DEL 2024, ESTE SIGUE EN FALLA</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -659,24 +659,24 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23 de Sep 2024 12:11 PM</t>
+          <t>23 de Sep 2024 12:22 PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JESUS LUIS MARTIN</t>
+          <t xml:space="preserve">JOSE MIGUEL </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CORTES JUAREZ</t>
+          <t>LONA HERNANDEZ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -686,77 +686,77 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>jcortesj@guanajuato.gob.mx</t>
+          <t>jlonah@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>INHIBIDORES: A UNO LE FALTA UN UPS, YA SOLO SE VE UN EQUIPO EN LA RED, SE NECESITA DAR UN MANTENIEMIETO A PROFUNDIDAD, CALIBRACION. GRABACION DE VOZ: SE SUBIERON HASTA EL MES DE JULIO DEL 2024, SE ESTAN ACTUALIZANDO LAS DEL MES DE AGOSTO DEL 2024</t>
+          <t>TELEFONIA: 10 TECLADOS DE TELEFONO DE PPLS´S,MODELO RECIENTE LEVANTAMIENTO PARA REPARACION DE 10 CAMARAS Y RECABLEADO DE 15 CAMARAS, HACER VISITA DE PROVEEDOR. GRABACION DE VOZ: SE HAN ESTADO CARGANDO AL FTP</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23 de Sep 2024 12:06 PM</t>
+          <t>23 de Sep 2024 12:17 PM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JUAN GABRIEL</t>
+          <t>ALEJANDRO ROSENDO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CORRAL JIMENEZ</t>
+          <t>GONZALEZ VELAZQUEZ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Salamanca</t>
+          <t>San Miguel</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BOBIC</t>
+          <t>SECMAN</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>jcorralj@guanajuato.gob.mx</t>
+          <t>agonzalezv@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DORMITORIO#2 :3 CAMARAS FALLANDO UNA DE ELLAS ES PTZ, DORMITORIO #1: FALLA EN TELEFONO #1 PPL'S, EL FUNCIONAMINETO ES INTERMITENTE, YA TIENEN MUCHO TIEMPO REPORTANDO, FALLA EN TELEFONIA AVAYA, REVISAR CONFIGURACIONES LA EXTENSION ES 14606, MONITORES, SE NECESITAN UPS Y COMPUTADORAS. GRABACIONES DE VOZ: AUN ESTA EN PROCESO DE SUBIRLAS, COMENTA QUE ESTAN EN EDICIÓN</t>
+          <t xml:space="preserve">ADUANA: TIENE UNA FALLA CON LA BANDA Y EL LECTOR, ARROJA UNA LEYENDA "SOLO DATOS DISPONIBLES" CAMARA CASETA PTZ: ESTA DESCONFIGURADA NO TIENE NADA DE VISION, ESTA ENCENDIDA PERO NO TIENE SEÑAL, TIENE DESDE QUE ENTREGARON EL PROYECTO QUE NO FUNCIONA. GRABACIONES DE VOZ: SE SUBIO UNA CANTIDAD, PERO SE ESTAN ACTUALIZANDO. RAYOS X: EL GENERADOR DE RAYOS X </t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>23 de Sep 2024 12:03 PM</t>
+          <t>23 de Sep 2024 12:11 PM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JOEL</t>
+          <t>JESUS LUIS MARTIN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MOSQUEDA PUENTES</t>
+          <t>CORTES JUAREZ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -766,37 +766,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>jmosquedap@guanajuato.gob.mx</t>
+          <t>jcortesj@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BodyScan: Se llevaron el generador para revision por que estaba dañado, comenta el proveedor que ya esta inservible,  se presto la pieza Disipador de voltaje, falta que lleven las piezas de parte del proveedor</t>
+          <t>INHIBIDORES: A UNO LE FALTA UN UPS, YA SOLO SE VE UN EQUIPO EN LA RED, SE NECESITA DAR UN MANTENIEMIETO A PROFUNDIDAD, CALIBRACION. GRABACION DE VOZ: SE SUBIERON HASTA EL MES DE JULIO DEL 2024, SE ESTAN ACTUALIZANDO LAS DEL MES DE AGOSTO DEL 2024</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>23 de Sep 2024 11:52 AM</t>
+          <t>23 de Sep 2024 12:06 PM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JOEL</t>
+          <t>JUAN GABRIEL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MOSQUEDA PUENTES</t>
+          <t>CORRAL JIMENEZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -806,27 +806,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>jmosquedap@guanajuato.gob.mx</t>
+          <t>jcorralj@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Maquina de rayos X esta descompuesta, esta desconfigurada y tiene archivos corruptos, comenta que el proveedor fue dos veces anteriormente para hacer la corrección, pero después de eso ya no fue el proveedor debido a que contrataban a otra empresa externa, comenta que el UPS también esta descompuesto, tiene un relay, Principal Empresa BOBIC y provetecnia. GRABACIONES DE VOZ: Se venían haciendo, están en cambio los números de control del RNIP</t>
+          <t>DORMITORIO#2 :3 CAMARAS FALLANDO UNA DE ELLAS ES PTZ, DORMITORIO #1: FALLA EN TELEFONO #1 PPL'S, EL FUNCIONAMINETO ES INTERMITENTE, YA TIENEN MUCHO TIEMPO REPORTANDO, FALLA EN TELEFONIA AVAYA, REVISAR CONFIGURACIONES LA EXTENSION ES 14606, MONITORES, SE NECESITAN UPS Y COMPUTADORAS. GRABACIONES DE VOZ: AUN ESTA EN PROCESO DE SUBIRLAS, COMENTA QUE ESTAN EN EDICIÓN</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>23 de Sep 2024 11:48 AM</t>
+          <t>23 de Sep 2024 12:03 PM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">JOEL </t>
+          <t>JOEL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -846,60 +846,60 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>jmosquedap@guanajuato.gob</t>
+          <t>jmosquedap@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TELEFONIA PPL'S: DORMITORIO #3, EL TELEFONO TIENE EL CABLE ROTO, COMENTA JOEL QUE YA TIENE EL TIEMPO REPORTANDOLO</t>
+          <t>BodyScan: Se llevaron el generador para revision por que estaba dañado, comenta el proveedor que ya esta inservible,  se presto la pieza Disipador de voltaje, falta que lleven las piezas de parte del proveedor</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20 de Sep 2024 09:46 AM</t>
+          <t>23 de Sep 2024 11:52 AM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVIER ALEXIS </t>
+          <t>JOEL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JAIME GARCIA</t>
+          <t>MOSQUEDA PUENTES</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Valle1</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FACTOR 3</t>
+          <t>BOBIC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>jjaimeg@guanajuato.gob.mx</t>
+          <t>jmosquedap@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CODIGO NEGRO: UPS DE MONITORES FALLA A CAUSA DE CORTE DE LUZ Y YA NO SIRVIO, EL CAMBIO DE PILAS FUER APROXIMADAMENTE HACE 3 MESES, FECHA EXACTA 6 DE AGOSTO DEL 2024, ESTE SIGUE EN FALLA</t>
+          <t>Maquina de rayos X esta descompuesta, esta desconfigurada y tiene archivos corruptos, comenta que el proveedor fue dos veces anteriormente para hacer la corrección, pero después de eso ya no fue el proveedor debido a que contrataban a otra empresa externa, comenta que el UPS también esta descompuesto, tiene un relay, Principal Empresa BOBIC y provetecnia. GRABACIONES DE VOZ: Se venían haciendo, están en cambio los números de control del RNIP</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17 de Sep 2024 03:41 PM</t>
+          <t>23 de Sep 2024 11:48 AM</t>
         </is>
       </c>
     </row>
@@ -921,23 +921,103 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>BOBIC</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>jmosquedap@guanajuato.gob</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TELEFONIA PPL'S: DORMITORIO #3, EL TELEFONO TIENE EL CABLE ROTO, COMENTA JOEL QUE YA TIENE EL TIEMPO REPORTANDOLO</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>20 de Sep 2024 09:46 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVIER ALEXIS </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>JAIME GARCIA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Valle1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FACTOR 3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>jjaimeg@guanajuato.gob.mx</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CODIGO NEGRO: UPS DE MONITORES FALLA A CAUSA DE CORTE DE LUZ Y YA NO SIRVIO, EL CAMBIO DE PILAS FUER APROXIMADAMENTE HACE 3 MESES, FECHA EXACTA 6 DE AGOSTO DEL 2024, ESTE SIGUE EN FALLA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>17 de Sep 2024 03:41 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOEL </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MOSQUEDA PUENTES</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>ONER, BOBIC</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>jmosquedap@guanajuato.gob.mx</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>MONITORES: NO SIRVEN YA QUE EL RESULTADO SALE EN 0, LA ULTIMA VISITA DEL PROVEEDOR FUE EL 23 DE MAYO DEL 2024</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CCTV: LOS MONITORES NO SIRVEN YA QUE EL RESULTADO SALE EN 0, LA ULTIMA VISITA DEL PROVEEDOR FUE EL 23 DE MAYO DEL 2024</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>12 de Sep 2024 01:18 PM</t>
         </is>
